--- a/Resource/TestData/WKD_DATAPOOL.xlsx
+++ b/Resource/TestData/WKD_DATAPOOL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_ADDRESS" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="130">
   <si>
     <t>DUPLICATE_ENTRY</t>
   </si>
@@ -421,17 +421,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="47">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -476,14 +484,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -493,6 +493,13 @@
       <sz val="9"/>
       <color rgb="FF212529"/>
       <name val="Open Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -582,13 +589,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -611,6 +611,13 @@
       <color rgb="FF000000"/>
       <name val="&quot;Courier New&quot;"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -620,8 +627,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,36 +742,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,85 +750,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,6 +763,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -826,7 +832,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,73 +946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,67 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,13 +982,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,27 +1030,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,15 +1095,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1113,176 +1102,185 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,166 +1289,164 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1737,12 +1733,12 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.1428571428571" style="35" customWidth="1"/>
+    <col min="1" max="1" width="19.1428571428571" style="62" customWidth="1"/>
     <col min="2" max="3" width="12.6285714285714" style="63"/>
     <col min="4" max="4" width="26.247619047619" style="63" customWidth="1"/>
     <col min="5" max="5" width="12.6285714285714" style="63"/>
@@ -1753,7 +1749,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="64" t="s">
@@ -1806,7 +1802,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="54" t="str">
+      <c r="A2" s="53" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
@@ -1860,7 +1856,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="54" t="str">
+      <c r="A3" s="53" t="str">
         <f t="shared" ref="A3:A14" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
@@ -1914,7 +1910,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="54" t="str">
+      <c r="A4" s="53" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
@@ -1966,7 +1962,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="54" t="str">
+      <c r="A5" s="53" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
@@ -1978,7 +1974,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="54" t="str">
+      <c r="A6" s="53" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
@@ -1990,7 +1986,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="54" t="str">
+      <c r="A7" s="53" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_08</v>
       </c>
@@ -2002,43 +1998,43 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="54" t="str">
+      <c r="A8" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="54" t="str">
+      <c r="A9" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="54" t="str">
+      <c r="A10" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="54" t="str">
+      <c r="A11" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="54" t="str">
+      <c r="A12" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="54" t="str">
+      <c r="A13" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="54" t="str">
+      <c r="A14" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2059,82 +2055,212 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="18.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="18.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="9" t="s">
+    <row r="2" ht="15.75" spans="1:6">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="9" t="s">
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A22" si="0">_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="9" t="s">
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2143,116 +2269,221 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="19.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="16.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="18.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="20.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="22.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="35.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="18.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="19.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="16.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="18.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="20.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="22.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="35.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" ht="15" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A18" si="0">_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>126</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2271,281 +2502,281 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="52" customWidth="1"/>
+    <col min="1" max="1" width="18.7142857142857" style="51" customWidth="1"/>
     <col min="4" max="4" width="20.8761904761905" customWidth="1"/>
     <col min="6" max="6" width="18.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="54" t="str">
+      <c r="A2" s="53" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="48">
         <v>33333</v>
       </c>
-      <c r="N2" s="61">
+      <c r="N2" s="60">
         <v>33333</v>
       </c>
-      <c r="O2" s="61">
+      <c r="O2" s="60">
         <v>33.3</v>
       </c>
-      <c r="P2" s="61">
+      <c r="P2" s="60">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="61" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="52" t="str">
+      <c r="A3" s="51" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="48">
         <v>4444</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="48">
         <v>4444</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="48">
         <v>44.4</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="48">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="52" t="str">
+      <c r="A4" s="51" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="48">
         <v>4444</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="48">
         <v>4444</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="48">
         <v>44.4</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="48">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="52" t="str">
+      <c r="A5" s="51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="52" t="str">
+      <c r="A6" s="51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="52" t="str">
+      <c r="A7" s="51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="52" t="str">
+      <c r="A8" s="51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="52" t="str">
+      <c r="A9" s="51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="52" t="str">
+      <c r="A10" s="51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="52" t="str">
+      <c r="A11" s="51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="52" t="str">
+      <c r="A12" s="51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A12">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="email@gmail.com"/>
@@ -2564,275 +2795,275 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6285714285714" style="34"/>
+    <col min="1" max="1" width="20.2857142857143" style="35" customWidth="1"/>
     <col min="4" max="4" width="18.8761904761905" customWidth="1"/>
-    <col min="5" max="5" width="14" style="17"/>
+    <col min="5" max="5" width="14" style="16"/>
     <col min="6" max="6" width="21.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="34" t="str">
+      <c r="A2" s="35" t="str">
         <f>_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="40">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="46">
         <v>33333</v>
       </c>
-      <c r="N2" s="48">
+      <c r="N2" s="47">
         <v>33333</v>
       </c>
-      <c r="O2" s="48">
+      <c r="O2" s="47">
         <v>33.3</v>
       </c>
-      <c r="P2" s="48">
+      <c r="P2" s="47">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="34" t="str">
+      <c r="A3" s="35" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3,C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <v>251311000010</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="46">
         <v>4444</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="48">
         <v>4444</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="48">
         <v>44.4</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="48">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="34" t="str">
+      <c r="A4" s="35" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="46">
         <v>4444</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="48">
         <v>4444</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="48">
         <v>44.4</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="48">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="34" t="str">
+      <c r="A5" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="34" t="str">
+      <c r="A6" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="34" t="str">
+      <c r="A7" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="34" t="str">
+      <c r="A8" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="34" t="str">
+      <c r="A9" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="34" t="str">
+      <c r="A10" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="34" t="str">
+      <c r="A11" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D11" s="26"/>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="34" t="str">
+      <c r="A12" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2842,7 +3073,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="email@gmail.com"/>
@@ -2858,63 +3089,71 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="25.1333333333333" customWidth="1"/>
     <col min="7" max="7" width="20.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15.1428571428571" style="17"/>
+    <col min="10" max="10" width="15.1428571428571" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:10">
-      <c r="B1" s="7" t="s">
+    <row r="1" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="2:10">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
       <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="29">
         <v>21243</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="82" t="s">
@@ -2923,24 +3162,28 @@
       <c r="H2" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="33">
         <v>1667789656789</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:8">
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
       <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="29">
         <v>21244</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="82" t="s">
@@ -2950,20 +3193,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:8">
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="29">
         <v>212435</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="82" t="s">
         <v>59</v>
       </c>
@@ -2971,20 +3218,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:8">
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
       <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="29">
         <v>21246</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="82" t="s">
@@ -2994,7 +3245,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:10">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_002TD_01</v>
+      </c>
       <c r="B6" s="23" t="s">
         <v>63</v>
       </c>
@@ -3004,22 +3259,52 @@
       <c r="D6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="29">
         <v>21246</v>
       </c>
-      <c r="I6" s="26">
-        <v>1234</v>
-      </c>
-      <c r="J6" s="33">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="4:4">
+      <c r="I6" s="26"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D7" s="26" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:1">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="email@gmail.com"/>
     <hyperlink ref="F3" r:id="rId2" display="email44@gmail.com"/>
@@ -3061,104 +3346,153 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="18.5714285714286" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="18.5714285714286" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.247619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="23" t="s">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="25">
+      <c r="E2" s="25">
         <v>251311000009</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="23" t="s">
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A9" si="0">_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="25">
+      <c r="E3" s="25">
         <v>251311000010</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="23" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="25">
+      <c r="E4" s="25">
         <v>251311000011</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="23" t="s">
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="25">
+      <c r="E5" s="25">
         <v>251311000012</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3169,135 +3503,196 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="14" style="17"/>
-    <col min="6" max="6" width="20.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="17.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="14" style="16"/>
+    <col min="7" max="7" width="20.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="17.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="23" t="s">
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="25">
+      <c r="E2" s="25">
         <v>251311000009</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="26">
+      <c r="H2" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="23" t="s">
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="25">
+      <c r="E3" s="25">
         <v>251311000010</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="26">
+      <c r="H3" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="23" t="s">
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="25">
+      <c r="E4" s="25">
         <v>251311000011</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="26">
+      <c r="H4" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="23" t="s">
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="25">
+      <c r="E5" s="25">
         <v>251311000012</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="26">
+      <c r="H5" s="26">
         <v>1</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:1">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3308,187 +3703,262 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="14" style="17"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="14" style="16"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:21">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="18"/>
+      <c r="V1" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:18">
-      <c r="A2" s="9" t="s">
+    <row r="2" customHeight="1" spans="1:19">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="R2" s="19">
         <v>7877997701</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:18">
-      <c r="A3" s="9" t="s">
+    <row r="3" customHeight="1" spans="1:19">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A13" si="0">_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:18">
-      <c r="A4" s="9" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:19">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="9"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:1">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3497,73 +3967,283 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="13.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="12.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="18.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="15.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="13.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="12.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="9" t="s">
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="15">
+      <c r="E2" s="14">
         <v>251311000009</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="9" t="s">
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A35" si="0">_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_002TD_02</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="15">
+      <c r="E3" s="14">
         <v>251311000009</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>118</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Resource/TestData/WKD_DATAPOOL.xlsx
+++ b/Resource/TestData/WKD_DATAPOOL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_ADDRESS" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="OFFER" sheetId="9" r:id="rId9"/>
     <sheet name="FILTER_TICKETS" sheetId="10" r:id="rId10"/>
     <sheet name="ALTER_ACCOUNT_STATE" sheetId="11" r:id="rId11"/>
+    <sheet name="ORDER_INFO" sheetId="12" r:id="rId12"/>
+    <sheet name="HLR" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="173">
   <si>
     <t>DUPLICATE_ENTRY</t>
   </si>
@@ -152,9 +154,6 @@
     <t>TD_05</t>
   </si>
   <si>
-    <t>TD_08</t>
-  </si>
-  <si>
     <t>ACCOUNT_ID</t>
   </si>
   <si>
@@ -170,6 +169,18 @@
     <t>ET8523</t>
   </si>
   <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>hhhhgg</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>vv</t>
+  </si>
+  <si>
     <t>SERVICE_ID</t>
   </si>
   <si>
@@ -182,7 +193,7 @@
     <t>ALTERNATE CONTACT</t>
   </si>
   <si>
-    <t>KYC_REFERENCE_ID</t>
+    <t>DOCUMENT_ID</t>
   </si>
   <si>
     <t>ID_NUMBER</t>
@@ -224,7 +235,94 @@
     <t>View Identification</t>
   </si>
   <si>
-    <t>PENDING</t>
+    <t>ACCOUNT_NAME</t>
+  </si>
+  <si>
+    <t>CONTACT_NO</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>KEY_ACC_MANAGER</t>
+  </si>
+  <si>
+    <t>BILL_MEDIUM</t>
+  </si>
+  <si>
+    <t>BANK_NAME</t>
+  </si>
+  <si>
+    <t>BRANCH_CODE</t>
+  </si>
+  <si>
+    <t>BRANCH_ACCOUNT_TYPE</t>
+  </si>
+  <si>
+    <t>BRANCH_ACCOUNT_NO</t>
+  </si>
+  <si>
+    <t>ITEMIZED_BILL_STATEMENT</t>
+  </si>
+  <si>
+    <t>EMAIL_NOTIFICATION</t>
+  </si>
+  <si>
+    <t>TAX_ACCEPTABLE</t>
+  </si>
+  <si>
+    <t>EXCEL_INVOICE</t>
+  </si>
+  <si>
+    <t>DIRECT_DEBT</t>
+  </si>
+  <si>
+    <t>Edit Account Details</t>
+  </si>
+  <si>
+    <t>ACNAME1</t>
+  </si>
+  <si>
+    <t>Amharic</t>
+  </si>
+  <si>
+    <t>slm_impl</t>
+  </si>
+  <si>
+    <t>Postal</t>
+  </si>
+  <si>
+    <t>NATIONAL BANK OF ETHOPIA</t>
+  </si>
+  <si>
+    <t>South branch</t>
+  </si>
+  <si>
+    <t>CURRENT</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>ACNAME2</t>
+  </si>
+  <si>
+    <t>email2@gmail.com</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>impl_slm</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>COMMERCIAL BANK OF ETHOPIA</t>
+  </si>
+  <si>
+    <t>ACNAME3</t>
   </si>
   <si>
     <t>SERVICE_NAME</t>
@@ -314,9 +412,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Contact_Number</t>
   </si>
   <si>
@@ -386,6 +481,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>TICKET_ID</t>
+  </si>
+  <si>
     <t>FilterTicket</t>
   </si>
   <si>
@@ -414,6 +512,39 @@
   </si>
   <si>
     <t>Credit Control</t>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
+    <t>Order Look Up</t>
+  </si>
+  <si>
+    <t>987304758258810880</t>
+  </si>
+  <si>
+    <t>New device status</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Blacklist</t>
+  </si>
+  <si>
+    <t>Stolen</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>Greylist</t>
+  </si>
+  <si>
+    <t>Fake Device</t>
   </si>
 </sst>
 </file>
@@ -421,17 +552,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="51">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -445,19 +591,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Open Sans"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -490,12 +627,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212529"/>
-      <name val="Open Sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -522,6 +653,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="&quot;Open Sans&quot;"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -541,10 +692,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <sz val="9.8"/>
+      <color rgb="FF77B767"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -596,12 +746,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="&quot;Open Sans&quot;"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -611,6 +755,27 @@
       <color rgb="FF000000"/>
       <name val="&quot;Courier New&quot;"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -620,8 +785,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,6 +808,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -643,92 +893,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,27 +908,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -772,7 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,13 +966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +996,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,19 +1044,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,79 +1080,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +1116,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,36 +1164,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1029,6 +1193,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1046,9 +1228,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,15 +1248,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,6 +1276,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1115,213 +1299,213 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1330,123 +1514,185 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="181" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1499,7 +1745,14 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1730,316 +1983,278 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="19.1428571428571" style="62" customWidth="1"/>
-    <col min="2" max="3" width="12.6285714285714" style="63"/>
-    <col min="4" max="4" width="26.247619047619" style="63" customWidth="1"/>
-    <col min="5" max="5" width="12.6285714285714" style="63"/>
-    <col min="6" max="6" width="19.247619047619" style="63" customWidth="1"/>
-    <col min="7" max="11" width="12.6285714285714" style="63"/>
-    <col min="12" max="12" width="18.4285714285714" style="63" customWidth="1"/>
-    <col min="13" max="16384" width="12.6285714285714" style="63"/>
+    <col min="1" max="1" width="17.7142857142857" style="74" customWidth="1"/>
+    <col min="2" max="3" width="12.6285714285714" style="75"/>
+    <col min="4" max="4" width="26.247619047619" style="75" customWidth="1"/>
+    <col min="5" max="5" width="12.6285714285714" style="75"/>
+    <col min="6" max="6" width="19.247619047619" style="75" customWidth="1"/>
+    <col min="7" max="11" width="12.6285714285714" style="75"/>
+    <col min="12" max="12" width="18.4285714285714" style="75" customWidth="1"/>
+    <col min="13" max="16384" width="12.6285714285714" style="75"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="87" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="53" t="str">
-        <f>_xlfn.CONCAT(B2:C2)</f>
+      <c r="A2" s="80" t="str">
+        <f>_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="83">
         <v>21243</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="76">
+      <c r="M2" s="90">
         <v>33333</v>
       </c>
-      <c r="N2" s="77">
+      <c r="N2" s="91">
         <v>33333</v>
       </c>
-      <c r="O2" s="77">
+      <c r="O2" s="91">
         <v>33.3</v>
       </c>
-      <c r="P2" s="77">
+      <c r="P2" s="91">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="94" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="53" t="str">
-        <f t="shared" ref="A3:A14" si="0">_xlfn.CONCAT(B3:C3)</f>
+      <c r="A3" s="80" t="str">
+        <f>_xlfn.CONCAT(B3,C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="83">
         <v>21243</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="90">
         <v>4444</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N3" s="92">
         <v>4444</v>
       </c>
-      <c r="O3" s="78">
+      <c r="O3" s="92">
         <v>44.4</v>
       </c>
-      <c r="P3" s="78">
+      <c r="P3" s="92">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="81" t="s">
+      <c r="Q3" s="95" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="53" t="str">
-        <f t="shared" si="0"/>
+      <c r="A4" s="80" t="str">
+        <f>_xlfn.CONCAT(B4,C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="83">
         <v>21243</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="90">
         <v>4444</v>
       </c>
-      <c r="N4" s="78">
+      <c r="N4" s="92">
         <v>4444</v>
       </c>
-      <c r="O4" s="78">
+      <c r="O4" s="92">
         <v>44.4</v>
       </c>
-      <c r="P4" s="78">
+      <c r="P4" s="92">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="95" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="53" t="str">
-        <f t="shared" si="0"/>
+      <c r="A5" s="65" t="str">
+        <f>_xlfn.CONCAT(B5,C5)</f>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="81" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="53" t="str">
-        <f t="shared" si="0"/>
+      <c r="A6" s="65" t="str">
+        <f>_xlfn.CONCAT(B6,C6)</f>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="81" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_08</v>
-      </c>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="65" t="str">
+        <f>_xlfn.CONCAT(B7,C7)</f>
+        <v>TC_001TD_05</v>
+      </c>
+      <c r="B7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C7" s="81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="4:4">
+      <c r="D8" s="86"/>
     </row>
   </sheetData>
+  <sheetProtection password="CC65" sheet="1" selectLockedCells="1" objects="1"/>
   <conditionalFormatting sqref="A$1:A$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -2055,58 +2270,64 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="16.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="18.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:6">
+      <c r="E1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:7">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>121</v>
+      <c r="D2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="17">
+        <v>5787</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
@@ -2114,20 +2335,20 @@
         <f t="shared" ref="A3:A22" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>101</v>
+      <c r="D3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -2135,16 +2356,16 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="str">
@@ -2256,7 +2477,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
@@ -2269,10 +2490,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2287,28 +2508,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2317,26 +2538,26 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>126</v>
+      <c r="D2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
@@ -2344,26 +2565,26 @@
         <f t="shared" ref="A3:A18" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>126</v>
+      <c r="D3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -2371,26 +2592,26 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>126</v>
+      <c r="D4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2477,13 +2698,208 @@
         <v/>
       </c>
     </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="13"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="18.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:6">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" t="str">
+        <f>_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" t="str">
+        <f>_xlfn.CONCAT(B4:C4)</f>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A4">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="15" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2494,289 +2910,307 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="51" customWidth="1"/>
-    <col min="4" max="4" width="20.8761904761905" customWidth="1"/>
-    <col min="6" max="6" width="18.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="18.7142857142857" style="63" customWidth="1"/>
+    <col min="2" max="3" width="12.6285714285714" style="13"/>
+    <col min="4" max="4" width="20.8761904761905" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6285714285714" style="13"/>
+    <col min="6" max="6" width="18.4285714285714" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="12.6285714285714" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="53" t="str">
+      <c r="A2" s="65" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="60">
         <v>33333</v>
       </c>
-      <c r="N2" s="60">
+      <c r="N2" s="72">
         <v>33333</v>
       </c>
-      <c r="O2" s="60">
+      <c r="O2" s="72">
         <v>33.3</v>
       </c>
-      <c r="P2" s="60">
+      <c r="P2" s="72">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="73" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="51" t="str">
+      <c r="A3" s="63" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="60">
+        <v>4444</v>
+      </c>
+      <c r="N3" s="60">
+        <v>4444</v>
+      </c>
+      <c r="O3" s="60">
+        <v>44.4</v>
+      </c>
+      <c r="P3" s="60">
+        <v>44.4</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:17">
+      <c r="A4" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="58" t="s">
+      <c r="F4" s="69"/>
+      <c r="G4" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H4" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J4" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K4" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L4" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M4" s="60">
         <v>4444</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N4" s="60">
         <v>4444</v>
       </c>
-      <c r="O3" s="48">
+      <c r="O4" s="60">
         <v>44.4</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P4" s="60">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q4" s="62" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_02</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="56" t="s">
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>hhhhhhgg</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="48">
-        <v>4444</v>
-      </c>
-      <c r="N4" s="48">
-        <v>4444</v>
-      </c>
-      <c r="O4" s="48">
-        <v>44.4</v>
-      </c>
-      <c r="P4" s="48">
-        <v>44.4</v>
-      </c>
-      <c r="Q4" s="50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="51" t="str">
+      <c r="A10" s="63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="51" t="str">
+      <c r="A11" s="63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A12" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:2">
+      <c r="B15" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A12">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="email@gmail.com"/>
@@ -2795,285 +3229,288 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.2857142857143" style="35" customWidth="1"/>
-    <col min="4" max="4" width="18.8761904761905" customWidth="1"/>
-    <col min="5" max="5" width="14" style="16"/>
-    <col min="6" max="6" width="21.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="20.2857142857143" style="43" customWidth="1"/>
+    <col min="2" max="3" width="12.6285714285714" style="13"/>
+    <col min="4" max="4" width="18.8761904761905" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14" style="44"/>
+    <col min="6" max="6" width="21.2857142857143" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="12.6285714285714" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="35" t="str">
+      <c r="A2" s="43" t="str">
         <f>_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="40">
+      <c r="D2" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="51">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="46">
+      <c r="M2" s="58">
         <v>33333</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="59">
         <v>33333</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="59">
         <v>33.3</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="59">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="61" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="35" t="str">
+      <c r="A3" s="43" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3,C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="40">
+      <c r="D3" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="51">
         <v>251311000010</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="58">
         <v>4444</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="60">
         <v>4444</v>
       </c>
-      <c r="O3" s="48">
+      <c r="O3" s="60">
         <v>44.4</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="60">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="62" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="35" t="str">
+      <c r="A4" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="40">
+      <c r="D4" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="51">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="58">
         <v>4444</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="60">
         <v>4444</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="60">
         <v>44.4</v>
       </c>
-      <c r="P4" s="48">
+      <c r="P4" s="60">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="62" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="35" t="str">
+      <c r="A5" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="35" t="str">
+      <c r="A6" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="35" t="str">
+      <c r="A7" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="35" t="str">
+      <c r="A8" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="35" t="str">
+      <c r="A9" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="35" t="str">
+      <c r="A10" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="26"/>
+      <c r="A11" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D11" s="54"/>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="35" t="str">
+      <c r="A12" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="email@gmail.com"/>
@@ -3092,7 +3529,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -3101,39 +3538,39 @@
     <col min="4" max="4" width="25.1333333333333" customWidth="1"/>
     <col min="7" max="7" width="20.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15.1428571428571" style="16"/>
+    <col min="10" max="10" width="15.1428571428571" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="32" t="s">
+      <c r="G1" s="14" t="s">
         <v>53</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
@@ -3141,28 +3578,31 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="29">
+      <c r="D2" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="38">
         <v>21243</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="33">
+      <c r="G2" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2">
+        <v>11111</v>
+      </c>
+      <c r="J2" s="41">
         <v>1667789656789</v>
       </c>
     </row>
@@ -3171,26 +3611,26 @@
         <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="29">
+      <c r="D3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="38">
         <v>21244</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="82" t="s">
-        <v>58</v>
+      <c r="G3" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
@@ -3198,24 +3638,24 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="29">
+      <c r="D4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="38">
         <v>212435</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>60</v>
+      <c r="F4" s="39"/>
+      <c r="G4" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
@@ -3223,26 +3663,26 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="D5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="38">
         <v>21246</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>62</v>
+      <c r="G5" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
@@ -3250,28 +3690,28 @@
         <f t="shared" si="0"/>
         <v>TC_002TD_01</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="D6" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="38">
         <v>21246</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="34"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>65</v>
+      <c r="D7" s="31" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
@@ -3300,7 +3740,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
@@ -3319,23 +3759,292 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="25.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="14.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="24.8571428571429" customWidth="1"/>
+    <col min="15" max="15" width="27.1428571428571" style="4" customWidth="1"/>
+    <col min="16" max="16" width="24.1428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="26" t="s">
-        <v>66</v>
+    <row r="1" customHeight="1" spans="1:20">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:20">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1.1312423423434e+17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:20">
+      <c r="A3" t="str">
+        <f>_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1.1312423423434e+17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:20">
+      <c r="A4" t="str">
+        <f>_xlfn.CONCAT(B4:C4)</f>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1.1312423423434e+17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F2"/>
-  </mergeCells>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="email@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="email2@gmail.com" tooltip="mailto:email2@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId1" display="email@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3354,28 +4063,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="18.5714285714286" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.5714285714286" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.247619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>67</v>
+      <c r="E1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -3383,20 +4092,20 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="25">
+      <c r="D2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="30">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>69</v>
+      <c r="F2" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -3404,20 +4113,20 @@
         <f t="shared" ref="A3:A9" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="D3" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="30">
         <v>251311000010</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>70</v>
+      <c r="F3" s="31" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -3425,20 +4134,20 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="D4" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="30">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>71</v>
+      <c r="F4" s="31" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -3446,20 +4155,20 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D5" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="30">
         <v>251311000012</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>72</v>
+      <c r="F5" s="31" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
@@ -3488,7 +4197,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
@@ -3505,41 +4214,41 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="14" style="16"/>
+    <col min="5" max="5" width="14" style="4"/>
     <col min="7" max="7" width="20.1333333333333" customWidth="1"/>
     <col min="8" max="8" width="17.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>74</v>
+      <c r="G1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
@@ -3547,25 +4256,25 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="25">
+      <c r="D2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="30">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="26">
+      <c r="F2" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="31">
         <v>2</v>
       </c>
     </row>
@@ -3574,25 +4283,25 @@
         <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="D3" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="30">
         <v>251311000010</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="26">
+      <c r="F3" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="31">
         <v>1</v>
       </c>
     </row>
@@ -3601,25 +4310,25 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="D4" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="30">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="F4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="31">
         <v>2</v>
       </c>
     </row>
@@ -3628,25 +4337,25 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D5" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="30">
         <v>251311000012</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="26">
+      <c r="F5" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="31">
         <v>1</v>
       </c>
     </row>
@@ -3688,7 +4397,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
@@ -3712,74 +4421,74 @@
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="4" max="4" width="17.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="14" style="16"/>
+    <col min="5" max="5" width="14" style="4"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="11" t="s">
+      <c r="D1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="17" t="s">
-        <v>100</v>
+      <c r="R1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="23"/>
+      <c r="V1" s="22" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:19">
@@ -3787,59 +4496,59 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" s="19">
+      <c r="D2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R2" s="24">
         <v>7877997701</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>114</v>
+      <c r="S2" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:19">
@@ -3847,56 +4556,56 @@
         <f t="shared" ref="A3:A13" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" customHeight="1" spans="1:19">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="4"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" t="str">
@@ -3954,7 +4663,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
@@ -3970,7 +4679,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -3984,23 +4693,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>115</v>
+      <c r="E1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -4008,20 +4717,20 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="20">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>117</v>
+      <c r="F2" s="21" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
@@ -4029,20 +4738,20 @@
         <f t="shared" ref="A3:A35" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_002TD_02</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="D3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="20">
         <v>251311000009</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>118</v>
+      <c r="F3" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4239,7 +4948,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>

--- a/Resource/TestData/WKD_DATAPOOL.xlsx
+++ b/Resource/TestData/WKD_DATAPOOL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="7" activeTab="12"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_ADDRESS" sheetId="1" r:id="rId1"/>
@@ -292,37 +292,37 @@
     <t>Postal</t>
   </si>
   <si>
+    <t>COMMERCIAL BANK OF ETHOPIA</t>
+  </si>
+  <si>
+    <t>South branch</t>
+  </si>
+  <si>
+    <t>CURRENT</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>ACNAME2</t>
+  </si>
+  <si>
+    <t>email2@gmail.com</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>impl_slm</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ACNAME3</t>
+  </si>
+  <si>
     <t>NATIONAL BANK OF ETHOPIA</t>
-  </si>
-  <si>
-    <t>South branch</t>
-  </si>
-  <si>
-    <t>CURRENT</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>ACNAME2</t>
-  </si>
-  <si>
-    <t>email2@gmail.com</t>
-  </si>
-  <si>
-    <t>Somali</t>
-  </si>
-  <si>
-    <t>impl_slm</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>COMMERCIAL BANK OF ETHOPIA</t>
-  </si>
-  <si>
-    <t>ACNAME3</t>
   </si>
   <si>
     <t>SERVICE_NAME</t>
@@ -552,12 +552,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="51">
     <font>
@@ -771,6 +771,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -782,6 +790,68 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -793,8 +863,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,108 +901,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,43 +1002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,19 +1026,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,19 +1062,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,25 +1092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,25 +1134,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,36 +1202,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1248,6 +1237,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,42 +1268,44 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1314,140 +1314,140 @@
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1458,18 +1458,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1487,37 +1484,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1527,16 +1524,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1551,7 +1547,7 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1623,9 +1619,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1745,18 +1738,8 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
@@ -1991,267 +1974,267 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="17.7142857142857" style="74" customWidth="1"/>
-    <col min="2" max="3" width="12.6285714285714" style="75"/>
-    <col min="4" max="4" width="26.247619047619" style="75" customWidth="1"/>
-    <col min="5" max="5" width="12.6285714285714" style="75"/>
-    <col min="6" max="6" width="19.247619047619" style="75" customWidth="1"/>
-    <col min="7" max="11" width="12.6285714285714" style="75"/>
-    <col min="12" max="12" width="18.4285714285714" style="75" customWidth="1"/>
-    <col min="13" max="16384" width="12.6285714285714" style="75"/>
+    <col min="1" max="1" width="17.7142857142857" style="72" customWidth="1"/>
+    <col min="2" max="3" width="12.6285714285714" style="12"/>
+    <col min="4" max="4" width="26.247619047619" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.6285714285714" style="12"/>
+    <col min="6" max="6" width="19.247619047619" style="12" customWidth="1"/>
+    <col min="7" max="11" width="12.6285714285714" style="12"/>
+    <col min="12" max="12" width="18.4285714285714" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="12.6285714285714" style="12"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="L1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="87" t="s">
+      <c r="N1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="87" t="s">
+      <c r="O1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="87" t="s">
+      <c r="P1" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="84" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="80" t="str">
-        <f>_xlfn.CONCAT(B2,C2)</f>
+      <c r="A2" s="77" t="str">
+        <f t="shared" ref="A2:A7" si="0">_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="83">
+      <c r="E2" s="80">
         <v>21243</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="90">
+      <c r="M2" s="87">
         <v>33333</v>
       </c>
-      <c r="N2" s="91">
+      <c r="N2" s="88">
         <v>33333</v>
       </c>
-      <c r="O2" s="91">
+      <c r="O2" s="88">
         <v>33.3</v>
       </c>
-      <c r="P2" s="91">
+      <c r="P2" s="88">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="94" t="s">
+      <c r="Q2" s="91" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="80" t="str">
-        <f>_xlfn.CONCAT(B3,C3)</f>
+      <c r="A3" s="77" t="str">
+        <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="80">
         <v>21243</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="89" t="s">
+      <c r="K3" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="90">
+      <c r="M3" s="87">
         <v>4444</v>
       </c>
-      <c r="N3" s="92">
+      <c r="N3" s="89">
         <v>4444</v>
       </c>
-      <c r="O3" s="92">
+      <c r="O3" s="89">
         <v>44.4</v>
       </c>
-      <c r="P3" s="92">
+      <c r="P3" s="89">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="95" t="s">
+      <c r="Q3" s="92" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="80" t="str">
-        <f>_xlfn.CONCAT(B4,C4)</f>
+      <c r="A4" s="77" t="str">
+        <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="80">
         <v>21243</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85" t="s">
+      <c r="F4" s="81"/>
+      <c r="G4" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="90">
+      <c r="M4" s="87">
         <v>4444</v>
       </c>
-      <c r="N4" s="92">
+      <c r="N4" s="89">
         <v>4444</v>
       </c>
-      <c r="O4" s="92">
+      <c r="O4" s="89">
         <v>44.4</v>
       </c>
-      <c r="P4" s="92">
+      <c r="P4" s="89">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="92" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="65" t="str">
-        <f>_xlfn.CONCAT(B5,C5)</f>
+      <c r="A5" s="63" t="str">
+        <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="78" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="65" t="str">
-        <f>_xlfn.CONCAT(B6,C6)</f>
+      <c r="A6" s="63" t="str">
+        <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="78" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="65" t="str">
-        <f>_xlfn.CONCAT(B7,C7)</f>
+      <c r="A7" s="63" t="str">
+        <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="78" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="4:4">
-      <c r="D8" s="86"/>
+      <c r="D8" s="83"/>
     </row>
   </sheetData>
   <sheetProtection password="CC65" sheet="1" selectLockedCells="1" objects="1"/>
@@ -2293,13 +2276,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>150</v>
       </c>
       <c r="G1" t="s">
@@ -2311,22 +2294,22 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>5787</v>
       </c>
     </row>
@@ -2335,16 +2318,16 @@
         <f t="shared" ref="A3:A22" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>132</v>
       </c>
       <c r="F3" t="s">
@@ -2356,16 +2339,16 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="str">
@@ -2538,25 +2521,25 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2565,25 +2548,25 @@
         <f t="shared" ref="A3:A18" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2592,25 +2575,25 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2699,7 +2682,7 @@
       </c>
     </row>
     <row r="25" spans="6:6">
-      <c r="F25" s="13"/>
+      <c r="F25" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -2754,51 +2737,51 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -2817,7 +2800,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2912,292 +2895,292 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="63" customWidth="1"/>
-    <col min="2" max="3" width="12.6285714285714" style="13"/>
-    <col min="4" max="4" width="20.8761904761905" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6285714285714" style="13"/>
-    <col min="6" max="6" width="18.4285714285714" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="12.6285714285714" style="13"/>
+    <col min="1" max="1" width="18.7142857142857" style="61" customWidth="1"/>
+    <col min="2" max="3" width="12.6285714285714" style="12"/>
+    <col min="4" max="4" width="20.8761904761905" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.6285714285714" style="12"/>
+    <col min="6" max="6" width="18.4285714285714" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="12.6285714285714" style="12"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="65" t="str">
+      <c r="A2" s="63" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="60">
+      <c r="M2" s="58">
         <v>33333</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="70">
         <v>33333</v>
       </c>
-      <c r="O2" s="72">
+      <c r="O2" s="70">
         <v>33.3</v>
       </c>
-      <c r="P2" s="72">
+      <c r="P2" s="70">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="71" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="63" t="str">
+      <c r="A3" s="61" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="58">
         <v>4444</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="58">
         <v>4444</v>
       </c>
-      <c r="O3" s="60">
+      <c r="O3" s="58">
         <v>44.4</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="58">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="63" t="str">
+      <c r="A4" s="61" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="67"/>
+      <c r="G4" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="60">
+      <c r="M4" s="58">
         <v>4444</v>
       </c>
-      <c r="N4" s="60">
+      <c r="N4" s="58">
         <v>4444</v>
       </c>
-      <c r="O4" s="60">
+      <c r="O4" s="58">
         <v>44.4</v>
       </c>
-      <c r="P4" s="60">
+      <c r="P4" s="58">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="63" t="str">
+      <c r="A5" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="63" t="str">
+      <c r="A6" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="63" t="str">
+      <c r="A7" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="63" t="str">
+      <c r="A8" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="63" t="str">
+      <c r="A9" s="61" t="str">
         <f t="shared" si="0"/>
         <v>hhhhhhgg</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="63" t="str">
+      <c r="A10" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="63" t="str">
+      <c r="A11" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="63" t="str">
+      <c r="A12" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3234,272 +3217,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.2857142857143" style="43" customWidth="1"/>
-    <col min="2" max="3" width="12.6285714285714" style="13"/>
-    <col min="4" max="4" width="18.8761904761905" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14" style="44"/>
-    <col min="6" max="6" width="21.2857142857143" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="12.6285714285714" style="13"/>
+    <col min="1" max="1" width="20.2857142857143" style="41" customWidth="1"/>
+    <col min="2" max="3" width="12.6285714285714" style="12"/>
+    <col min="4" max="4" width="18.8761904761905" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14" style="42"/>
+    <col min="6" max="6" width="21.2857142857143" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="12.6285714285714" style="12"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="43" t="str">
+      <c r="A2" s="41" t="str">
         <f>_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="49">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="58">
+      <c r="M2" s="56">
         <v>33333</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="57">
         <v>33333</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="57">
         <v>33.3</v>
       </c>
-      <c r="P2" s="59">
+      <c r="P2" s="57">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="43" t="str">
+      <c r="A3" s="41" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3,C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="49">
         <v>251311000010</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="56">
         <v>4444</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="58">
         <v>4444</v>
       </c>
-      <c r="O3" s="60">
+      <c r="O3" s="58">
         <v>44.4</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="58">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="43" t="str">
+      <c r="A4" s="41" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="58">
+      <c r="M4" s="56">
         <v>4444</v>
       </c>
-      <c r="N4" s="60">
+      <c r="N4" s="58">
         <v>4444</v>
       </c>
-      <c r="O4" s="60">
+      <c r="O4" s="58">
         <v>44.4</v>
       </c>
-      <c r="P4" s="60">
+      <c r="P4" s="58">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="43" t="str">
+      <c r="A5" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="43" t="str">
+      <c r="A6" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="43" t="str">
+      <c r="A7" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="43" t="str">
+      <c r="A8" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="43" t="str">
+      <c r="A9" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="43" t="str">
+      <c r="A10" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="54"/>
+      <c r="A11" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="43" t="str">
+      <c r="A12" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3545,31 +3528,31 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3578,31 +3561,31 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="37">
         <v>21243</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="93" t="s">
         <v>59</v>
       </c>
       <c r="I2">
         <v>11111</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="8">
         <v>1667789656789</v>
       </c>
     </row>
@@ -3611,25 +3594,25 @@
         <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>21244</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="93" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3638,23 +3621,23 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>212435</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="93" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3663,25 +3646,25 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>21246</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="93" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3690,27 +3673,27 @@
         <f t="shared" si="0"/>
         <v>TC_002TD_01</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>21246</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="42"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3761,8 +3744,8 @@
   </sheetPr>
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
@@ -3786,61 +3769,61 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3849,43 +3832,43 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="35" t="s">
         <v>88</v>
       </c>
       <c r="M2" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="35" t="s">
         <v>90</v>
       </c>
       <c r="O2" s="4">
@@ -3912,40 +3895,40 @@
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="36" t="s">
+      <c r="L3" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="35" t="s">
         <v>90</v>
       </c>
       <c r="O3" s="4">
@@ -3972,43 +3955,43 @@
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="35" t="s">
         <v>98</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="35" t="s">
         <v>90</v>
       </c>
       <c r="O4" s="4">
@@ -4035,10 +4018,10 @@
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="email@gmail.com"/>
@@ -4071,19 +4054,19 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4092,19 +4075,19 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4113,19 +4096,19 @@
         <f t="shared" ref="A3:A9" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>251311000010</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4134,19 +4117,19 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4155,19 +4138,19 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>251311000012</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4229,25 +4212,25 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4256,25 +4239,25 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <v>2</v>
       </c>
     </row>
@@ -4283,25 +4266,25 @@
         <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>251311000010</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="30">
         <v>1</v>
       </c>
     </row>
@@ -4310,25 +4293,25 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>2</v>
       </c>
     </row>
@@ -4337,25 +4320,25 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>251311000012</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="30">
         <v>1</v>
       </c>
     </row>
@@ -4483,11 +4466,11 @@
       <c r="S1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="22" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="21" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4496,58 +4479,58 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="23">
         <v>7877997701</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4556,56 +4539,56 @@
         <f t="shared" ref="A3:A13" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:19">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" t="str">
@@ -4702,13 +4685,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4717,19 +4700,19 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4738,19 +4721,19 @@
         <f t="shared" ref="A3:A35" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_002TD_02</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>251311000009</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>149</v>
       </c>
     </row>

--- a/Resource/TestData/WKD_DATAPOOL.xlsx
+++ b/Resource/TestData/WKD_DATAPOOL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="803" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="803" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_ADDRESS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="264">
   <si>
     <t>DUPLICATE_ENTRY</t>
   </si>
@@ -161,6 +161,9 @@
     <t>Edit44</t>
   </si>
   <si>
+    <t>TD_04</t>
+  </si>
+  <si>
     <t>TD_05</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
     <t>ET8523</t>
   </si>
   <si>
+    <t>ET12647</t>
+  </si>
+  <si>
     <t>SERVICE_ID</t>
   </si>
   <si>
@@ -194,6 +200,9 @@
     <t>Houseno213</t>
   </si>
   <si>
+    <t>251700100134</t>
+  </si>
+  <si>
     <t>CONTACT</t>
   </si>
   <si>
@@ -254,9 +263,6 @@
     <t>TC_004</t>
   </si>
   <si>
-    <t>TD_04</t>
-  </si>
-  <si>
     <t>View Profile Details</t>
   </si>
   <si>
@@ -356,12 +362,15 @@
     <t>View Account Details</t>
   </si>
   <si>
-    <t>ET12647</t>
-  </si>
-  <si>
     <t>SERVICE_NAME</t>
   </si>
   <si>
+    <t>ICCID</t>
+  </si>
+  <si>
+    <t>IMSI</t>
+  </si>
+  <si>
     <t>Edit  Service</t>
   </si>
   <si>
@@ -377,6 +386,18 @@
     <t>SERVICE 4</t>
   </si>
   <si>
+    <t>View Details</t>
+  </si>
+  <si>
+    <t>SERVICE 5</t>
+  </si>
+  <si>
+    <t>8925102406450008827</t>
+  </si>
+  <si>
+    <t>636024060008827</t>
+  </si>
+  <si>
     <t>REASON</t>
   </si>
   <si>
@@ -752,28 +773,16 @@
     <t>TD_10</t>
   </si>
   <si>
-    <t>ICCID</t>
-  </si>
-  <si>
     <t>8925102406450000000</t>
   </si>
   <si>
     <t>TD_11</t>
   </si>
   <si>
-    <t>IMSI</t>
-  </si>
-  <si>
-    <t>636024060008827</t>
-  </si>
-  <si>
     <t>TD_12</t>
   </si>
   <si>
     <t>MSISDN/Service ID</t>
-  </si>
-  <si>
-    <t>251700100134</t>
   </si>
   <si>
     <t>TD_13</t>
@@ -1794,7 +1803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -2152,6 +2161,10 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2177,10 +2190,17 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -2201,10 +2221,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2537,8 +2553,8 @@
   </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7"/>
@@ -2572,10 +2588,10 @@
       <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="126" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="43" t="s">
@@ -2611,19 +2627,19 @@
         <f t="shared" ref="A2:A7" si="0">_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="128">
+      <c r="E2" s="129">
         <v>21243</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="130" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="103" t="s">
@@ -2632,7 +2648,7 @@
       <c r="H2" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="132" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="106" t="s">
@@ -2665,19 +2681,19 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="128">
+      <c r="E3" s="129">
         <v>21243</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="130" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="103" t="s">
@@ -2686,7 +2702,7 @@
       <c r="H3" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="132" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="106" t="s">
@@ -2719,26 +2735,26 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="128">
+      <c r="E4" s="129">
         <v>21243</v>
       </c>
-      <c r="F4" s="129"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="46" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="132" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="106" t="s">
@@ -2766,16 +2782,58 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
+    <row r="5" customHeight="1" spans="1:17">
       <c r="A5" s="118" t="str">
         <f t="shared" si="0"/>
-        <v>TC_001TD_05</v>
-      </c>
-      <c r="B5" s="126" t="s">
+        <v>TC_001TD_04</v>
+      </c>
+      <c r="B5" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="127" t="s">
         <v>44</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5">
+        <v>29032</v>
+      </c>
+      <c r="F5" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="107">
+        <v>2222</v>
+      </c>
+      <c r="N5" s="109">
+        <v>2222</v>
+      </c>
+      <c r="O5" s="109">
+        <v>22.2</v>
+      </c>
+      <c r="P5" s="109">
+        <v>22.2</v>
+      </c>
+      <c r="Q5" s="115" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -2783,11 +2841,11 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="126" t="s">
-        <v>44</v>
+      <c r="C6" s="127" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -2795,15 +2853,15 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="126" t="s">
-        <v>44</v>
+      <c r="C7" s="127" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="4:4">
-      <c r="D8" s="130"/>
+      <c r="D8" s="131"/>
     </row>
   </sheetData>
   <sheetProtection password="CC65" sheet="1" selectLockedCells="1" objects="1"/>
@@ -2813,6 +2871,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="email@gmail.com"/>
     <hyperlink ref="F3" r:id="rId2" display="email44@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId2" display="email44@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2853,16 +2912,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:8">
@@ -2877,19 +2936,19 @@
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G2" s="29">
         <v>5787</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
@@ -2904,13 +2963,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
@@ -2927,7 +2986,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="31"/>
@@ -3555,16 +3614,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>16</v>
@@ -3582,19 +3641,19 @@
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
@@ -3609,19 +3668,19 @@
         <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -3636,19 +3695,19 @@
         <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4270,10 +4329,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -4288,10 +4347,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="137" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
@@ -4306,7 +4365,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E3" s="17"/>
     </row>
@@ -4322,7 +4381,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E4" s="17"/>
     </row>
@@ -4961,13 +5020,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
@@ -4982,16 +5041,16 @@
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
@@ -5007,13 +5066,13 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
@@ -5029,13 +5088,13 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5634,7 +5693,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -5659,10 +5718,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -5677,13 +5736,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:6">
@@ -5699,10 +5758,10 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
@@ -5718,10 +5777,10 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="138" t="s">
-        <v>120</v>
+        <v>235</v>
+      </c>
+      <c r="F4" s="142" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:6">
@@ -5733,14 +5792,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>230</v>
+        <v>236</v>
+      </c>
+      <c r="F5" s="137" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:6">
@@ -5752,11 +5811,11 @@
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -5769,14 +5828,14 @@
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>61</v>
+        <v>240</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:6">
@@ -5788,11 +5847,11 @@
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -5805,11 +5864,11 @@
         <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -5822,11 +5881,11 @@
         <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -5839,14 +5898,14 @@
         <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="139" t="s">
-        <v>242</v>
+        <v>112</v>
+      </c>
+      <c r="F11" s="137" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:6">
@@ -5858,14 +5917,14 @@
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="139" t="s">
-        <v>245</v>
+        <v>113</v>
+      </c>
+      <c r="F12" s="137" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:6">
@@ -5877,14 +5936,14 @@
         <v>17</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="140" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="F13" s="133" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:6">
@@ -5896,11 +5955,11 @@
         <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -5913,11 +5972,11 @@
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F15" s="7">
         <v>29032</v>
@@ -5932,11 +5991,11 @@
         <v>17</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -5949,11 +6008,11 @@
         <v>17</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -5966,11 +6025,11 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -5983,11 +6042,11 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -6101,7 +6160,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -6128,7 +6187,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="98" t="s">
         <v>5</v>
@@ -6179,10 +6238,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="121" t="s">
         <v>20</v>
@@ -6193,7 +6252,7 @@
       <c r="H2" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="125" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="106" t="s">
@@ -6233,10 +6292,10 @@
         <v>28</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="121" t="s">
         <v>30</v>
@@ -6247,7 +6306,7 @@
       <c r="H3" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="125" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="106" t="s">
@@ -6287,10 +6346,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="121"/>
       <c r="G4" s="123" t="s">
@@ -6299,7 +6358,7 @@
       <c r="H4" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="124" t="s">
+      <c r="I4" s="125" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="106" t="s">
@@ -6327,10 +6386,58 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:1">
+    <row r="5" customHeight="1" spans="1:17">
       <c r="A5" s="117" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>TC_001TD_04</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="107">
+        <v>2222</v>
+      </c>
+      <c r="N5" s="109">
+        <v>2222</v>
+      </c>
+      <c r="O5" s="109">
+        <v>22.2</v>
+      </c>
+      <c r="P5" s="109">
+        <v>22.2</v>
+      </c>
+      <c r="Q5" s="115" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
@@ -6389,6 +6496,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="email@gmail.com"/>
     <hyperlink ref="F3" r:id="rId2" display="email44@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId2" display="email44@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6402,8 +6510,8 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -6431,7 +6539,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="98" t="s">
         <v>5</v>
@@ -6482,7 +6590,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="101">
         <v>251311000009</v>
@@ -6491,7 +6599,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="104" t="s">
         <v>39</v>
@@ -6500,10 +6608,10 @@
         <v>23</v>
       </c>
       <c r="J2" s="106" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" s="106" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" s="106" t="s">
         <v>26</v>
@@ -6536,7 +6644,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="101">
         <v>251311000009</v>
@@ -6545,7 +6653,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="103" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" s="104" t="s">
         <v>39</v>
@@ -6590,7 +6698,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="101">
         <v>251311000011</v>
@@ -6633,24 +6741,56 @@
     <row r="5" customHeight="1" spans="1:17">
       <c r="A5" s="97" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="116"/>
+        <v>TC_001TD_04</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="107">
+        <v>4444</v>
+      </c>
+      <c r="N5" s="109">
+        <v>4444</v>
+      </c>
+      <c r="O5" s="109">
+        <v>44.4</v>
+      </c>
+      <c r="P5" s="109">
+        <v>44.4</v>
+      </c>
+      <c r="Q5" s="115" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:17">
       <c r="A6" s="97" t="str">
@@ -7068,6 +7208,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="email@gmail.com"/>
     <hyperlink ref="F3" r:id="rId2" display="email44@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId2" display="email44@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7081,8 +7222,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -7120,16 +7261,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I1" s="93" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
@@ -7144,19 +7285,19 @@
         <v>18</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" s="88">
         <v>21243</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="G2" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="134" t="s">
+        <v>65</v>
       </c>
       <c r="I2" s="92"/>
       <c r="J2" s="94"/>
@@ -7173,7 +7314,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" s="88">
         <v>21243</v>
@@ -7181,11 +7322,11 @@
       <c r="F3" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="132" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="132" t="s">
-        <v>64</v>
+      <c r="G3" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="134" t="s">
+        <v>67</v>
       </c>
       <c r="I3" s="92"/>
       <c r="J3" s="95"/>
@@ -7202,17 +7343,17 @@
         <v>36</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4" s="88">
         <v>212435</v>
       </c>
       <c r="F4" s="89"/>
-      <c r="G4" s="132" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="132" t="s">
-        <v>66</v>
+      <c r="G4" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="134" t="s">
+        <v>69</v>
       </c>
       <c r="I4" s="92"/>
       <c r="J4" s="95"/>
@@ -7229,7 +7370,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="88">
         <v>21246</v>
@@ -7237,11 +7378,11 @@
       <c r="F5" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="132" t="s">
-        <v>68</v>
+      <c r="G5" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>71</v>
       </c>
       <c r="I5" s="92"/>
       <c r="J5" s="95"/>
@@ -7252,13 +7393,13 @@
         <v>TC_002TD_01</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="91">
         <v>11779</v>
@@ -7267,7 +7408,7 @@
       <c r="G6" s="92"/>
       <c r="H6" s="92"/>
       <c r="I6" s="96" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J6" s="94"/>
     </row>
@@ -7277,13 +7418,13 @@
         <v>TC_003TD_02</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C7" s="86" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E7" s="92"/>
       <c r="F7" s="90"/>
@@ -7300,13 +7441,13 @@
         <v>TC_004TD_04</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5">
         <v>29032</v>
@@ -7474,7 +7615,7 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -7511,52 +7652,52 @@
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L1" s="75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M1" s="75" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O1" s="76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P1" s="75" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R1" s="75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S1" s="75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T1" s="75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:20">
@@ -7571,55 +7712,55 @@
         <v>18</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="133" t="s">
-        <v>63</v>
+      <c r="H2" s="135" t="s">
+        <v>66</v>
       </c>
       <c r="I2" s="77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J2" s="77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L2" s="78" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M2" s="79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N2" s="78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O2" s="80">
         <v>1.1312423423434e+17</v>
       </c>
       <c r="P2" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R2" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S2" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T2" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:20">
@@ -7634,53 +7775,53 @@
         <v>28</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>63</v>
+        <v>103</v>
+      </c>
+      <c r="H3" s="135" t="s">
+        <v>66</v>
       </c>
       <c r="I3" s="77" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K3" s="77" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L3" s="78" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M3" s="79"/>
       <c r="N3" s="78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O3" s="80">
         <v>1.1312423423434e+17</v>
       </c>
       <c r="P3" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R3" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S3" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T3" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:20">
@@ -7695,55 +7836,55 @@
         <v>36</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G4" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="133" t="s">
-        <v>63</v>
+      <c r="H4" s="135" t="s">
+        <v>66</v>
       </c>
       <c r="I4" s="77" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J4" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="77" t="s">
-        <v>104</v>
-      </c>
       <c r="L4" s="78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M4" s="79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O4" s="80">
         <v>1.1312423423434e+17</v>
       </c>
       <c r="P4" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R4" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S4" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T4" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
@@ -7755,13 +7896,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
@@ -8074,21 +8215,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="4" width="12.6285714285714" style="5"/>
     <col min="5" max="5" width="18.5714285714286" style="13" customWidth="1"/>
     <col min="6" max="6" width="15.247619047619" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="12.6285714285714" style="5"/>
+    <col min="7" max="7" width="27.1428571428571" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.4285714285714" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="12.6285714285714" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8102,10 +8245,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -8120,13 +8269,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E2" s="68">
         <v>251311000009</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -8141,13 +8290,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" s="68">
         <v>251311000009</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -8162,13 +8311,13 @@
         <v>36</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E4" s="68">
         <v>251311000011</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -8183,19 +8332,40 @@
         <v>36</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E5" s="68">
         <v>251311000012</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>TC_001TD_04</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="137" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
@@ -8602,19 +8772,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="57" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
@@ -8629,22 +8799,22 @@
         <v>18</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="134" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="E2" s="138" t="s">
+        <v>127</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I2" s="63" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
@@ -8659,20 +8829,20 @@
         <v>28</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="134" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E3" s="138" t="s">
+        <v>132</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="63" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
@@ -8687,23 +8857,23 @@
         <v>36</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="134" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="E4" s="138" t="s">
+        <v>135</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H4" s="62"/>
       <c r="I4" s="63"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>17</v>
@@ -8712,22 +8882,22 @@
         <v>36</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="134" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="E5" s="138" t="s">
+        <v>139</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
@@ -8738,7 +8908,7 @@
       <c r="F6" s="63"/>
       <c r="G6" s="63"/>
       <c r="H6" s="62" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I6" s="63"/>
     </row>
@@ -8847,55 +9017,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R1" s="41" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="U1" s="42" t="s">
         <v>6</v>
@@ -8922,11 +9092,11 @@
         <v>13</v>
       </c>
       <c r="AC1" s="49" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AD1" s="49"/>
       <c r="AE1" s="49" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:31">
@@ -8941,58 +9111,58 @@
         <v>18</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="R2" s="45">
         <v>7877997701</v>
       </c>
       <c r="S2" s="45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="U2" s="46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V2" s="46" t="s">
         <v>39</v>
@@ -9001,13 +9171,13 @@
         <v>23</v>
       </c>
       <c r="X2" s="48" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Y2" s="48" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Z2" s="48" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AA2" s="50">
         <v>33333</v>
@@ -9030,62 +9200,62 @@
       <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="135" t="s">
-        <v>169</v>
+      <c r="D3" s="139" t="s">
+        <v>176</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="R3" s="45">
         <v>7877997701</v>
       </c>
       <c r="S3" s="45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="W3" s="47" t="s">
         <v>31</v>
@@ -9094,10 +9264,10 @@
         <v>40</v>
       </c>
       <c r="Y3" s="48" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Z3" s="48" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AA3" s="50">
         <v>4444</v>
@@ -9120,62 +9290,62 @@
       <c r="C4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="136" t="s">
-        <v>169</v>
+      <c r="D4" s="140" t="s">
+        <v>176</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="N4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="Q4" s="12" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="R4" s="45">
         <v>7877997701</v>
       </c>
       <c r="S4" s="45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="U4" s="46" t="s">
         <v>21</v>
       </c>
       <c r="V4" s="46" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="W4" s="47" t="s">
         <v>31</v>
@@ -9184,10 +9354,10 @@
         <v>40</v>
       </c>
       <c r="Y4" s="48" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Z4" s="48" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AA4" s="50">
         <v>4444</v>
@@ -9208,62 +9378,62 @@
         <v>17</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="R5" s="45">
         <v>7877997701</v>
       </c>
       <c r="S5" s="45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="U5" s="46" t="s">
         <v>21</v>
       </c>
       <c r="V5" s="46" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="W5" s="47" t="s">
         <v>31</v>
@@ -9272,10 +9442,10 @@
         <v>40</v>
       </c>
       <c r="Y5" s="48" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Z5" s="48" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AA5" s="50">
         <v>4444</v>
@@ -10113,10 +10283,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -10131,13 +10301,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E2" s="35">
         <v>251311000009</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
@@ -10146,19 +10316,19 @@
         <v>TC_002TD_02</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E3" s="35">
         <v>251311000009</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:1">
